--- a/Test data/TC02_Login.xlsx
+++ b/Test data/TC02_Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2797B9-10F5-4D5F-AD91-267F58094B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197DD4F-B0B7-4445-99D6-CD7325B1BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>TDID</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>26122000</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Username</t>
@@ -523,7 +520,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -546,27 +543,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -584,10 +581,10 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
@@ -604,10 +601,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -622,10 +619,10 @@
     </row>
     <row r="5" spans="1:8" ht="17.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -642,7 +639,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>

--- a/Test data/TC02_Login.xlsx
+++ b/Test data/TC02_Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197DD4F-B0B7-4445-99D6-CD7325B1BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4137D309-E66D-4F4B-8FF7-5AF5260CBFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>TDID</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Actual result</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -532,10 +538,12 @@
     <col min="6" max="6" width="12.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.36328125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -558,10 +566,16 @@
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -578,8 +592,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -598,8 +614,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -616,8 +634,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17.5" customHeight="1">
+    <row r="5" spans="1:10" ht="17.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -636,8 +656,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -656,6 +678,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test data/TC02_Login.xlsx
+++ b/Test data/TC02_Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4137D309-E66D-4F4B-8FF7-5AF5260CBFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94735FF2-7B5F-41A5-A172-83CF10917F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,21 +525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="12.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.08984375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
